--- a/Lectures/Lecture 25/SumDice-2.xlsx
+++ b/Lectures/Lecture 25/SumDice-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7039210-32B8-48E7-948A-B4216DAEEABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9289D3B-5E09-46C4-8848-8BEDB6869B79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="3" xr2:uid="{F5108C43-9D06-7845-9F73-2F0042692879}"/>
   </bookViews>
@@ -11637,7 +11637,7 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
